--- a/DATA/GRV_scraper/day-strings.xlsx
+++ b/DATA/GRV_scraper/day-strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\grvmodel\DATA\GRV_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{25866BEC-D505-4C7A-85A1-A79027D51C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77251BF-875C-400D-9AFD-4BE9034F32E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15419" yWindow="2758" windowWidth="26083" windowHeight="19100"/>
+    <workbookView xWindow="3804" yWindow="462" windowWidth="26083" windowHeight="28881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day-strings" sheetId="1" r:id="rId1"/>
@@ -7363,9 +7363,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd&quot;%2F&quot;mm&quot;%2F&quot;yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd&quot;%2F&quot;mm&quot;%2F&quot;yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -7852,7 +7852,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8207,11 +8207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2485"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2446" workbookViewId="0">
-      <selection activeCell="A2481" sqref="A2471:A2481"/>
+      <selection activeCell="G2465" sqref="G2465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -20644,6 +20644,71 @@
         <v>44854</v>
       </c>
     </row>
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2486" s="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2487" s="1">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2488" s="1">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2489" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2490" s="1">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2491" s="1">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2492" s="1">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2493" s="1">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2494" s="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2495" s="1">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2496" s="1">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2497" s="1">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2498" s="1">
+        <v>44867</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
